--- a/data/tehilim-data/8.xlsx
+++ b/data/tehilim-data/8.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
   <si>
     <t>original</t>
   </si>
@@ -19,6 +19,9 @@
     <t>translation</t>
   </si>
   <si>
+    <t>א</t>
+  </si>
+  <si>
     <t>לַמְנַצֵּחַ</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>Давида</t>
   </si>
   <si>
+    <t>ב</t>
+  </si>
+  <si>
     <t>יְהוָה</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>небесами</t>
   </si>
   <si>
+    <t>ג</t>
+  </si>
+  <si>
     <t>מִפִּי</t>
   </si>
   <si>
@@ -178,6 +187,9 @@
     <t>и мстящего</t>
   </si>
   <si>
+    <t>ד</t>
+  </si>
+  <si>
     <t>כִּי</t>
   </si>
   <si>
@@ -229,6 +241,9 @@
     <t>Ты установил</t>
   </si>
   <si>
+    <t>ה</t>
+  </si>
+  <si>
     <t>אֱנוֹשׁ</t>
   </si>
   <si>
@@ -259,6 +274,9 @@
     <t>посещаешь его</t>
   </si>
   <si>
+    <t>ו</t>
+  </si>
+  <si>
     <t>וַתְּחַסְּרֵהוּ</t>
   </si>
   <si>
@@ -295,6 +313,9 @@
     <t>и честью</t>
   </si>
   <si>
+    <t>ז</t>
+  </si>
+  <si>
     <t>תַּמְשִׁילֵהוּ</t>
   </si>
   <si>
@@ -337,6 +358,9 @@
     <t>под</t>
   </si>
   <si>
+    <t>ח</t>
+  </si>
+  <si>
     <t>צֹנֶה</t>
   </si>
   <si>
@@ -373,6 +397,9 @@
     <t>полевых</t>
   </si>
   <si>
+    <t>ט</t>
+  </si>
+  <si>
     <t>צִפּוֹר</t>
   </si>
   <si>
@@ -413,6 +440,9 @@
   </si>
   <si>
     <t>пути</t>
+  </si>
+  <si>
+    <t>י</t>
   </si>
 </sst>
 </file>
@@ -450,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -458,6 +488,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -690,8 +723,8 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>1.0</v>
@@ -700,52 +733,52 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
-        <v>2.0</v>
+      <c r="A8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>2.0</v>
@@ -754,115 +787,115 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="3">
-        <v>3.0</v>
+      <c r="A21" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B21" s="3">
         <v>3.0</v>
@@ -871,97 +904,97 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="3">
-        <v>4.0</v>
+      <c r="A32" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B32" s="3">
         <v>4.0</v>
@@ -970,88 +1003,88 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="3">
-        <v>5.0</v>
+      <c r="A42" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B42" s="3">
         <v>5.0</v>
@@ -1060,79 +1093,79 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="3">
-        <v>6.0</v>
+      <c r="A51" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B51" s="3">
         <v>6.0</v>
@@ -1141,61 +1174,61 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="3">
-        <v>7.0</v>
+      <c r="A58" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B58" s="3">
         <v>7.0</v>
@@ -1204,70 +1237,70 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="3">
-        <v>8.0</v>
+      <c r="A66" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B66" s="3">
         <v>8.0</v>
@@ -1276,61 +1309,61 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="3">
-        <v>9.0</v>
+      <c r="A73" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B73" s="3">
         <v>9.0</v>
@@ -1339,70 +1372,70 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="3">
-        <v>10.0</v>
+      <c r="A81" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B81" s="3">
         <v>10.0</v>
@@ -1411,64 +1444,64 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C88" s="2"/>
     </row>
